--- a/results_lstm.xlsx
+++ b/results_lstm.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marko\code\ML-Load-Forecasting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{194FED54-4F87-46F3-9843-EC96A835D529}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D44686-2D55-4038-8030-D2326F1E3754}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5460" yWindow="1755" windowWidth="13740" windowHeight="11385" activeTab="1" xr2:uid="{0F4418DD-0FC8-4DE1-BC92-70BCE6C2708D}"/>
+    <workbookView xWindow="6810" yWindow="2010" windowWidth="18435" windowHeight="11385" xr2:uid="{0F4418DD-0FC8-4DE1-BC92-70BCE6C2708D}"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="3" r:id="rId1"/>
-    <sheet name="Feature Importance" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="Feature Importance" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="77">
   <si>
     <t>Loss</t>
   </si>
@@ -52,21 +53,6 @@
     <t>MAPE</t>
   </si>
   <si>
-    <t>0,79729 (+- 0,08233)</t>
-  </si>
-  <si>
-    <t>0,83415 (+- 0,06335)</t>
-  </si>
-  <si>
-    <t>1126,06095 (+- 260,94461)</t>
-  </si>
-  <si>
-    <t>832,01506 (+- 218,61752)</t>
-  </si>
-  <si>
-    <t>5,65027 (+- 1,31122)</t>
-  </si>
-  <si>
     <t>C1</t>
   </si>
   <si>
@@ -131,6 +117,153 @@
   </si>
   <si>
     <t>0.466609</t>
+  </si>
+  <si>
+    <t>Std Scaler</t>
+  </si>
+  <si>
+    <t>Batch</t>
+  </si>
+  <si>
+    <t>Epochs</t>
+  </si>
+  <si>
+    <t>Neurons</t>
+  </si>
+  <si>
+    <t>Hidden layers</t>
+  </si>
+  <si>
+    <t>C4</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>Elapsed Time (s)</t>
+  </si>
+  <si>
+    <t>Elapsed Time (min)</t>
+  </si>
+  <si>
+    <t>0,83415 (+- 0,063)</t>
+  </si>
+  <si>
+    <t>0,81811 (+- 0,061)</t>
+  </si>
+  <si>
+    <t>0,83748 (+- 0,039)</t>
+  </si>
+  <si>
+    <t>0,82128 (+- 0,057)</t>
+  </si>
+  <si>
+    <t>0,83692 (+- 0,047)</t>
+  </si>
+  <si>
+    <t>0,83647 (+- 0,035)</t>
+  </si>
+  <si>
+    <t>0,79729 (+- 0,082)</t>
+  </si>
+  <si>
+    <t>0,78795 (+- 0,061)</t>
+  </si>
+  <si>
+    <t>0,84668 (+- 0,068)</t>
+  </si>
+  <si>
+    <t>0,82730 (+- 0,083)</t>
+  </si>
+  <si>
+    <t>0,86025 (+- 0,071)</t>
+  </si>
+  <si>
+    <t>0,85653 (+- 0,056)</t>
+  </si>
+  <si>
+    <t>1126,06 (+- 260,94)</t>
+  </si>
+  <si>
+    <t>1179,39 (+- 249,55)</t>
+  </si>
+  <si>
+    <t>1119,38 (+- 168,96)</t>
+  </si>
+  <si>
+    <t>1172,70 (+- 238,35)</t>
+  </si>
+  <si>
+    <t>1120,18 (+- 209,76)</t>
+  </si>
+  <si>
+    <t>1124,35 (+- 160,82)</t>
+  </si>
+  <si>
+    <t>832,02 (+- 218,62)</t>
+  </si>
+  <si>
+    <t>860,51 (+- 175,66)</t>
+  </si>
+  <si>
+    <t>824,15 (+- 118,77)</t>
+  </si>
+  <si>
+    <t>868,74 (+- 183,54)</t>
+  </si>
+  <si>
+    <t>835,54 (+- 144,26)</t>
+  </si>
+  <si>
+    <t>808,75 (+- 102,24)</t>
+  </si>
+  <si>
+    <t>5,650 (+- 1,311)</t>
+  </si>
+  <si>
+    <t>5,748 (+- 0,940)</t>
+  </si>
+  <si>
+    <t>5,668 (+- 0,827)</t>
+  </si>
+  <si>
+    <t>5,938 (+- 1,051)</t>
+  </si>
+  <si>
+    <t>5,796 (+- 0,885)</t>
+  </si>
+  <si>
+    <t>5,485 (+- 0,578)</t>
+  </si>
+  <si>
+    <t>Any null value in dataset?</t>
+  </si>
+  <si>
+    <t>How many are they?</t>
+  </si>
+  <si>
+    <t>How many zero values?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Date            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hour            </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DEMAND          </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DryBulb         </t>
+  </si>
+  <si>
+    <t xml:space="preserve">DewPnt          </t>
+  </si>
+  <si>
+    <t>Count</t>
   </si>
 </sst>
 </file>
@@ -174,7 +307,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -183,6 +316,14 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -497,76 +638,762 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DACC92E-7394-43E6-9866-3393AAB67510}">
-  <dimension ref="B3:H6"/>
+  <dimension ref="B1:J37"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="7.5703125" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20" customWidth="1"/>
     <col min="7" max="7" width="22.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="3" t="s">
+    <row r="1" spans="2:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="B1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4">
-        <v>1336105.3324800001</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="I1" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E4" t="s">
+      <c r="C2" s="1">
+        <v>1336106</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I2" s="5">
+        <v>19.002566666666667</v>
+      </c>
+      <c r="J2">
+        <v>1140.154</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="F4" t="s">
+      <c r="C3" s="1">
+        <v>1453227</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="I3" s="5">
+        <v>20.231400000000001</v>
+      </c>
+      <c r="J3">
+        <v>1213.884</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G4" t="s">
+      <c r="C4" s="1">
+        <v>1281559</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="5">
+        <v>40.406150000000004</v>
+      </c>
+      <c r="J4">
+        <v>2424.3690000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B5" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="1">
+        <v>1432045</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G5" t="s">
+        <v>59</v>
+      </c>
+      <c r="H5" t="s">
+        <v>65</v>
+      </c>
+      <c r="I5" s="5">
+        <v>47.210850000000001</v>
+      </c>
+      <c r="J5">
+        <v>2832.6509999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B6" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="1">
+        <v>1298798</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="I6" s="5">
+        <v>73.156850000000006</v>
+      </c>
+      <c r="J6">
+        <v>4389.4110000000001</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B7" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1290016</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="I7" s="5">
+        <v>142.09168333333335</v>
+      </c>
+      <c r="J7" s="4">
+        <v>8525.5010000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B8" s="2"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="5"/>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="H4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
+      <c r="C11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>2</v>
+      </c>
+      <c r="D12" s="1">
+        <v>24</v>
+      </c>
+      <c r="E12" s="1">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1">
+        <v>128</v>
+      </c>
+      <c r="G12" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="1">
+        <v>8</v>
+      </c>
+      <c r="D13" s="1">
+        <v>24</v>
+      </c>
+      <c r="E13" s="1">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1">
+        <v>128</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14" s="1">
+        <v>8</v>
+      </c>
+      <c r="D14" s="1">
+        <v>24</v>
+      </c>
+      <c r="E14" s="1">
+        <v>80</v>
+      </c>
+      <c r="F14" s="1">
+        <v>128</v>
+      </c>
+      <c r="G14" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="1">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1">
+        <v>24</v>
+      </c>
+      <c r="E15" s="1">
+        <v>80</v>
+      </c>
+      <c r="F15" s="1">
+        <v>128</v>
+      </c>
+      <c r="G15" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B16" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="1">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>13</v>
+      <c r="E16" s="1">
+        <v>80</v>
+      </c>
+      <c r="F16" s="1">
+        <v>128</v>
+      </c>
+      <c r="G16" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="1">
+        <v>8</v>
+      </c>
+      <c r="D17" s="1">
+        <v>24</v>
+      </c>
+      <c r="E17" s="1">
+        <v>80</v>
+      </c>
+      <c r="F17" s="1">
+        <v>256</v>
+      </c>
+      <c r="G17" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1336106</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1453227</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1281559</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="7">
+        <v>19.002566666666667</v>
+      </c>
+      <c r="D28" s="7">
+        <v>20.231400000000001</v>
+      </c>
+      <c r="E28" s="7">
+        <v>40.406150000000004</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="3"/>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+    </row>
+    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B30" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1432045</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1298798</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1290016</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B32" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" s="7">
+        <v>47.210850000000001</v>
+      </c>
+      <c r="D37" s="7">
+        <v>73.156850000000006</v>
+      </c>
+      <c r="E37" s="7">
+        <v>142.09168333333335</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61A55D90-CC2B-4765-AC42-695D5DC2DA53}">
+  <dimension ref="D10:E29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="24.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="10" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D10" t="s">
+        <v>68</v>
+      </c>
+      <c r="E10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D11" t="s">
+        <v>71</v>
+      </c>
+      <c r="E11" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D12" t="s">
+        <v>72</v>
+      </c>
+      <c r="E12" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D14" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D17" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D18" t="s">
+        <v>71</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D19" t="s">
+        <v>72</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D20" t="s">
+        <v>73</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D22" t="s">
+        <v>75</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D25" t="s">
+        <v>71</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D26" t="s">
+        <v>72</v>
+      </c>
+      <c r="E26">
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="D29" t="s">
+        <v>75</v>
+      </c>
+      <c r="E29">
+        <v>250</v>
       </c>
     </row>
   </sheetData>
@@ -574,11 +1401,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{097AAA55-5864-417C-B926-718923509374}">
   <dimension ref="B4:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B4" sqref="B4:C12"/>
     </sheetView>
   </sheetViews>
@@ -590,74 +1417,74 @@
   <sheetData>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B7" s="1" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B10" s="1" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B11" s="1" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
